--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lta-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lta-Ltbr.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.566126333333334</v>
+        <v>0.014142</v>
       </c>
       <c r="H2">
-        <v>7.698379</v>
+        <v>0.042426</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.554109</v>
+        <v>6.436245333333333</v>
       </c>
       <c r="N2">
-        <v>37.662327</v>
+        <v>19.308736</v>
       </c>
       <c r="O2">
-        <v>0.3769666338280888</v>
+        <v>0.2367562936388591</v>
       </c>
       <c r="P2">
-        <v>0.3769666338280886</v>
+        <v>0.2367562936388591</v>
       </c>
       <c r="Q2">
-        <v>32.21542969643701</v>
+        <v>0.09102138150399999</v>
       </c>
       <c r="R2">
-        <v>289.9388672679331</v>
+        <v>0.8191924335359999</v>
       </c>
       <c r="S2">
-        <v>0.3769666338280888</v>
+        <v>0.2367562936388591</v>
       </c>
       <c r="T2">
-        <v>0.3769666338280886</v>
+        <v>0.2367562936388591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.566126333333334</v>
+        <v>0.014142</v>
       </c>
       <c r="H3">
-        <v>7.698379</v>
+        <v>0.042426</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>44.92581</v>
       </c>
       <c r="O3">
-        <v>0.4496676843069278</v>
+        <v>0.5508630013028089</v>
       </c>
       <c r="P3">
-        <v>0.4496676843069278</v>
+        <v>0.550863001302809</v>
       </c>
       <c r="Q3">
-        <v>38.42843469577667</v>
+        <v>0.21178026834</v>
       </c>
       <c r="R3">
-        <v>345.85591226199</v>
+        <v>1.90602241506</v>
       </c>
       <c r="S3">
-        <v>0.4496676843069278</v>
+        <v>0.5508630013028089</v>
       </c>
       <c r="T3">
-        <v>0.4496676843069278</v>
+        <v>0.550863001302809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.566126333333334</v>
+        <v>0.014142</v>
       </c>
       <c r="H4">
-        <v>7.698379</v>
+        <v>0.042426</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>17.320777</v>
       </c>
       <c r="O4">
-        <v>0.1733656818649836</v>
+        <v>0.212380705058332</v>
       </c>
       <c r="P4">
-        <v>0.1733656818649835</v>
+        <v>0.212380705058332</v>
       </c>
       <c r="Q4">
-        <v>14.81576732449811</v>
+        <v>0.08165014277799999</v>
       </c>
       <c r="R4">
-        <v>133.341905920483</v>
+        <v>0.7348512850019999</v>
       </c>
       <c r="S4">
-        <v>0.1733656818649836</v>
+        <v>0.212380705058332</v>
       </c>
       <c r="T4">
-        <v>0.1733656818649835</v>
+        <v>0.212380705058332</v>
       </c>
     </row>
   </sheetData>
